--- a/clear_data/women_2015_2022.xlsx
+++ b/clear_data/women_2015_2022.xlsx
@@ -466,28 +466,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67705787</v>
+        <v>78495561</v>
       </c>
       <c r="C2" t="n">
-        <v>68387560</v>
+        <v>78648161</v>
       </c>
       <c r="D2" t="n">
-        <v>69081582</v>
+        <v>78760072</v>
       </c>
       <c r="E2" t="n">
-        <v>69706439</v>
+        <v>78760516</v>
       </c>
       <c r="F2" t="n">
-        <v>70189364</v>
+        <v>78684291</v>
       </c>
       <c r="G2" t="n">
-        <v>70646504</v>
+        <v>78625520</v>
       </c>
       <c r="H2" t="n">
-        <v>70812143</v>
+        <v>78323212</v>
       </c>
       <c r="I2" t="n">
-        <v>70694413</v>
+        <v>77903290</v>
       </c>
     </row>
     <row r="3">
@@ -497,28 +497,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18332794</v>
+        <v>21086389</v>
       </c>
       <c r="C3" t="n">
-        <v>18556863</v>
+        <v>21164659</v>
       </c>
       <c r="D3" t="n">
-        <v>18765000</v>
+        <v>21210964</v>
       </c>
       <c r="E3" t="n">
-        <v>18977658</v>
+        <v>21251482</v>
       </c>
       <c r="F3" t="n">
-        <v>19157034</v>
+        <v>21278736</v>
       </c>
       <c r="G3" t="n">
-        <v>19311683</v>
+        <v>21293740</v>
       </c>
       <c r="H3" t="n">
-        <v>19348906</v>
+        <v>21195793</v>
       </c>
       <c r="I3" t="n">
-        <v>19322364</v>
+        <v>21090443</v>
       </c>
     </row>
     <row r="4">
@@ -528,28 +528,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6463409</v>
+        <v>7453631</v>
       </c>
       <c r="C4" t="n">
-        <v>6533024</v>
+        <v>7472040</v>
       </c>
       <c r="D4" t="n">
-        <v>6610930</v>
+        <v>7494748</v>
       </c>
       <c r="E4" t="n">
-        <v>6688742</v>
+        <v>7517343</v>
       </c>
       <c r="F4" t="n">
-        <v>6751015</v>
+        <v>7527269</v>
       </c>
       <c r="G4" t="n">
-        <v>6806828</v>
+        <v>7532155</v>
       </c>
       <c r="H4" t="n">
-        <v>6831548</v>
+        <v>7512462</v>
       </c>
       <c r="I4" t="n">
-        <v>6831868</v>
+        <v>7484393</v>
       </c>
     </row>
     <row r="5">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6462864</v>
+        <v>7497393</v>
       </c>
       <c r="C5" t="n">
-        <v>6533939</v>
+        <v>7521297</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -580,22 +580,22 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>7722870.900000001</v>
+        <v>8803658.890000001</v>
       </c>
       <c r="E6" t="n">
-        <v>7792192.900000001</v>
+        <v>8807193.890000001</v>
       </c>
       <c r="F6" t="n">
-        <v>7855275.900000001</v>
+        <v>8811002.890000001</v>
       </c>
       <c r="G6" t="n">
-        <v>7914282.920000001</v>
+        <v>8813496.92</v>
       </c>
       <c r="H6" t="n">
-        <v>7970269.880000002</v>
+        <v>8821282.860000003</v>
       </c>
       <c r="I6" t="n">
-        <v>7974403.930000002</v>
+        <v>8788866.910000002</v>
       </c>
     </row>
     <row r="7">
@@ -605,28 +605,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4213367.94</v>
+        <v>5088576.94</v>
       </c>
       <c r="C7" t="n">
-        <v>4268518.910000001</v>
+        <v>5115453.900000001</v>
       </c>
       <c r="D7" t="n">
-        <v>4323252.930000001</v>
+        <v>5142714.920000001</v>
       </c>
       <c r="E7" t="n">
-        <v>4376758.920000001</v>
+        <v>5164543.910000001</v>
       </c>
       <c r="F7" t="n">
-        <v>4426346.930000001</v>
+        <v>5183915.930000001</v>
       </c>
       <c r="G7" t="n">
-        <v>4483585.900000001</v>
+        <v>5210900.890000002</v>
       </c>
       <c r="H7" t="n">
-        <v>4538957.95</v>
+        <v>5227572.94</v>
       </c>
       <c r="I7" t="n">
-        <v>4575244.910000001</v>
+        <v>5237195.900000001</v>
       </c>
     </row>
     <row r="8">
@@ -636,28 +636,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13850096.94</v>
+        <v>16020490.93</v>
       </c>
       <c r="C8" t="n">
-        <v>13933115.92</v>
+        <v>15995199.91</v>
       </c>
       <c r="D8" t="n">
-        <v>14027651.9</v>
+        <v>15968206.9</v>
       </c>
       <c r="E8" t="n">
-        <v>14097554.95</v>
+        <v>15906640.94</v>
       </c>
       <c r="F8" t="n">
-        <v>14132409.93</v>
+        <v>15823769.92</v>
       </c>
       <c r="G8" t="n">
-        <v>14174887.93</v>
+        <v>15759019.92</v>
       </c>
       <c r="H8" t="n">
-        <v>14149533.94</v>
+        <v>15644154.94</v>
       </c>
       <c r="I8" t="n">
-        <v>14071652.89</v>
+        <v>15503611.88</v>
       </c>
     </row>
     <row r="9">
@@ -667,28 +667,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5658446.900000001</v>
+        <v>6560049.900000001</v>
       </c>
       <c r="C9" t="n">
-        <v>5723889.920000001</v>
+        <v>6577240.910000001</v>
       </c>
       <c r="D9" t="n">
-        <v>5794389.910000001</v>
+        <v>6595066.900000001</v>
       </c>
       <c r="E9" t="n">
-        <v>5854120.920000001</v>
+        <v>6598630.910000001</v>
       </c>
       <c r="F9" t="n">
-        <v>5896342.900000001</v>
+        <v>6593432.900000001</v>
       </c>
       <c r="G9" t="n">
-        <v>5937076.940000001</v>
+        <v>6595448.930000002</v>
       </c>
       <c r="H9" t="n">
-        <v>5952852.890000002</v>
+        <v>6579055.870000002</v>
       </c>
       <c r="I9" t="n">
-        <v>5947907.930000001</v>
+        <v>6554249.910000001</v>
       </c>
     </row>
     <row r="10">
@@ -698,16 +698,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8870601.9</v>
+        <v>10323880.88</v>
       </c>
       <c r="C10" t="n">
-        <v>8949930.949999999</v>
+        <v>10329931.95</v>
       </c>
       <c r="D10" t="n">
-        <v>9030342.92</v>
+        <v>10330159.9</v>
       </c>
       <c r="E10" t="n">
-        <v>9094961.910000002</v>
+        <v>10309136.9</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -725,16 +725,16 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>8191153.870000002</v>
+        <v>9204632.870000001</v>
       </c>
       <c r="G11" t="n">
-        <v>8224305.920000001</v>
+        <v>9172853.91</v>
       </c>
       <c r="H11" t="n">
-        <v>8222937.920000001</v>
+        <v>9115555.91</v>
       </c>
       <c r="I11" t="n">
-        <v>8187514.910000001</v>
+        <v>9043290.9</v>
       </c>
     </row>
     <row r="12">
@@ -744,16 +744,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2773074.92</v>
+        <v>3226018.91</v>
       </c>
       <c r="C12" t="n">
-        <v>2788271.91</v>
+        <v>3220047.91</v>
       </c>
       <c r="D12" t="n">
-        <v>2807127.92</v>
+        <v>3214535.920000001</v>
       </c>
       <c r="E12" t="n">
-        <v>2824434.91</v>
+        <v>3205527.890000001</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -771,16 +771,16 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3779774.930000001</v>
+        <v>4261519.930000001</v>
       </c>
       <c r="G13" t="n">
-        <v>3793840.900000001</v>
+        <v>4247891.880000002</v>
       </c>
       <c r="H13" t="n">
-        <v>3797128.91</v>
+        <v>4227324.91</v>
       </c>
       <c r="I13" t="n">
-        <v>3783441.91</v>
+        <v>4201221.91</v>
       </c>
     </row>
     <row r="14">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1081113.93</v>
+        <v>1239110.93</v>
       </c>
       <c r="C14" t="n">
-        <v>1099989.92</v>
+        <v>1252271.91</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
